--- a/2020-07-25.xlsx
+++ b/2020-07-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="274">
   <si>
     <t>Roll Number</t>
   </si>
@@ -1193,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,7 +1530,7 @@
         <v>156</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
         <v>272</v>
@@ -1541,13 +1541,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
         <v>272</v>
@@ -1558,13 +1558,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22">
-        <v>68</v>
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>272</v>
       </c>
       <c r="E22" t="s">
         <v>272</v>
@@ -1575,10 +1575,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
         <v>272</v>
@@ -1592,10 +1592,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
         <v>272</v>
@@ -1609,16 +1609,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" t="s">
-        <v>272</v>
+        <v>161</v>
+      </c>
+      <c r="D25">
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26">
-        <v>143</v>
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
       </c>
       <c r="E26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1643,13 +1643,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -1660,16 +1660,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" t="s">
-        <v>272</v>
+        <v>164</v>
+      </c>
+      <c r="D28">
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1677,13 +1677,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29">
-        <v>97</v>
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>272</v>
       </c>
       <c r="E29" t="s">
         <v>272</v>
@@ -1694,13 +1694,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30">
         <v>164</v>
-      </c>
-      <c r="D30">
-        <v>151</v>
       </c>
       <c r="E30" t="s">
         <v>273</v>
@@ -1711,10 +1711,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
         <v>272</v>
@@ -1728,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D32">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
         <v>273</v>
@@ -1745,10 +1745,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
         <v>272</v>
@@ -1762,16 +1762,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D34">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1779,10 +1779,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
         <v>272</v>
@@ -1796,13 +1796,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36">
-        <v>25</v>
+        <v>172</v>
+      </c>
+      <c r="D36" t="s">
+        <v>272</v>
       </c>
       <c r="E36" t="s">
         <v>272</v>
@@ -1813,10 +1813,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
         <v>272</v>
@@ -1830,10 +1830,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
         <v>272</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" t="s">
-        <v>272</v>
+        <v>175</v>
+      </c>
+      <c r="D39">
+        <v>171</v>
       </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" t="s">
-        <v>272</v>
+        <v>176</v>
+      </c>
+      <c r="D40">
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1881,13 +1881,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D41">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
         <v>273</v>
@@ -1898,16 +1898,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42">
-        <v>162</v>
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>272</v>
       </c>
       <c r="E42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43">
-        <v>160</v>
+        <v>179</v>
+      </c>
+      <c r="D43" t="s">
+        <v>272</v>
       </c>
       <c r="E43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1932,16 +1932,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" t="s">
-        <v>272</v>
+        <v>180</v>
+      </c>
+      <c r="D44">
+        <v>175</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1949,10 +1949,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
         <v>272</v>
@@ -1966,13 +1966,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46">
         <v>180</v>
-      </c>
-      <c r="D46">
-        <v>175</v>
       </c>
       <c r="E46" t="s">
         <v>273</v>
@@ -1983,10 +1983,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
         <v>272</v>
@@ -2000,16 +2000,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D48">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2017,10 +2017,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
         <v>272</v>
@@ -2034,13 +2034,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50">
-        <v>76</v>
+        <v>186</v>
+      </c>
+      <c r="D50" t="s">
+        <v>272</v>
       </c>
       <c r="E50" t="s">
         <v>272</v>
@@ -2051,10 +2051,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
         <v>272</v>
@@ -2068,10 +2068,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
         <v>272</v>
@@ -2085,10 +2085,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
         <v>272</v>
@@ -2102,10 +2102,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
         <v>272</v>
@@ -2119,16 +2119,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D55" t="s">
-        <v>272</v>
+        <v>191</v>
+      </c>
+      <c r="D55">
+        <v>174</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2136,16 +2136,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" t="s">
-        <v>272</v>
+        <v>192</v>
+      </c>
+      <c r="D56">
+        <v>175</v>
       </c>
       <c r="E56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2153,16 +2153,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D57">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2170,16 +2170,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58">
-        <v>175</v>
+        <v>194</v>
+      </c>
+      <c r="D58" t="s">
+        <v>272</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2187,16 +2187,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="E59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2204,16 +2204,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" t="s">
-        <v>272</v>
+        <v>196</v>
+      </c>
+      <c r="D60">
+        <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2221,16 +2221,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61">
-        <v>175</v>
+        <v>197</v>
+      </c>
+      <c r="D61" t="s">
+        <v>272</v>
       </c>
       <c r="E61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2238,16 +2238,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D62">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2255,10 +2255,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
         <v>272</v>
@@ -2272,16 +2272,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D64">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2289,16 +2289,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" t="s">
-        <v>272</v>
+        <v>201</v>
+      </c>
+      <c r="D65">
+        <v>177</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2306,16 +2306,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="D66" t="s">
+        <v>272</v>
       </c>
       <c r="E66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2323,16 +2323,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67">
-        <v>177</v>
+        <v>203</v>
+      </c>
+      <c r="D67" t="s">
+        <v>272</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2340,13 +2340,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" t="s">
-        <v>272</v>
+        <v>204</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
       </c>
       <c r="E68" t="s">
         <v>272</v>
@@ -2357,13 +2357,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" t="s">
-        <v>272</v>
+        <v>205</v>
+      </c>
+      <c r="D69">
+        <v>62</v>
       </c>
       <c r="E69" t="s">
         <v>272</v>
@@ -2374,16 +2374,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2391,16 +2391,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="E71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2408,13 +2408,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
         <v>273</v>
@@ -2425,16 +2425,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73">
-        <v>179</v>
+        <v>209</v>
+      </c>
+      <c r="D73" t="s">
+        <v>272</v>
       </c>
       <c r="E73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2442,13 +2442,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
         <v>273</v>
@@ -2459,10 +2459,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
         <v>272</v>
@@ -2476,13 +2476,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D76">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
         <v>273</v>
@@ -2493,13 +2493,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" t="s">
-        <v>272</v>
+        <v>213</v>
+      </c>
+      <c r="D77">
+        <v>93</v>
       </c>
       <c r="E77" t="s">
         <v>272</v>
@@ -2510,16 +2510,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
-      </c>
-      <c r="D78">
-        <v>150</v>
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>272</v>
       </c>
       <c r="E78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2527,16 +2527,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D79">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2544,10 +2544,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
         <v>272</v>
@@ -2561,13 +2561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D81">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
         <v>273</v>
@@ -2578,10 +2578,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D82" t="s">
         <v>272</v>
@@ -2595,16 +2595,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
-      </c>
-      <c r="D83">
-        <v>137</v>
+        <v>219</v>
+      </c>
+      <c r="D83" t="s">
+        <v>272</v>
       </c>
       <c r="E83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2612,10 +2612,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D84" t="s">
         <v>272</v>
@@ -2629,10 +2629,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D85" t="s">
         <v>272</v>
@@ -2646,10 +2646,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D86" t="s">
         <v>272</v>
@@ -2663,10 +2663,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
         <v>272</v>
@@ -2680,16 +2680,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
-      </c>
-      <c r="D88" t="s">
-        <v>272</v>
+        <v>224</v>
+      </c>
+      <c r="D88">
+        <v>154</v>
       </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2697,10 +2697,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D89" t="s">
         <v>272</v>
@@ -2714,13 +2714,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D90">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E90" t="s">
         <v>273</v>
@@ -2731,10 +2731,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D91" t="s">
         <v>272</v>
@@ -2748,16 +2748,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>226</v>
-      </c>
-      <c r="D92">
-        <v>135</v>
+        <v>228</v>
+      </c>
+      <c r="D92" t="s">
+        <v>272</v>
       </c>
       <c r="E92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2765,16 +2765,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
-      </c>
-      <c r="D93" t="s">
-        <v>272</v>
+        <v>229</v>
+      </c>
+      <c r="D93">
+        <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2782,10 +2782,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D94" t="s">
         <v>272</v>
@@ -2799,13 +2799,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D95">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E95" t="s">
         <v>273</v>
@@ -2816,16 +2816,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
-      </c>
-      <c r="D96" t="s">
-        <v>272</v>
+        <v>232</v>
+      </c>
+      <c r="D96">
+        <v>167</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2833,16 +2833,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>231</v>
-      </c>
-      <c r="D97">
-        <v>105</v>
+        <v>233</v>
+      </c>
+      <c r="D97" t="s">
+        <v>272</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2850,13 +2850,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D98">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E98" t="s">
         <v>273</v>
@@ -2867,10 +2867,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D99" t="s">
         <v>272</v>
@@ -2884,16 +2884,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>234</v>
-      </c>
-      <c r="D100">
-        <v>176</v>
+        <v>236</v>
+      </c>
+      <c r="D100" t="s">
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2901,10 +2901,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D101" t="s">
         <v>272</v>
@@ -2918,13 +2918,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" t="s">
-        <v>272</v>
+        <v>238</v>
+      </c>
+      <c r="D102">
+        <v>17</v>
       </c>
       <c r="E102" t="s">
         <v>272</v>
@@ -2935,13 +2935,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>237</v>
-      </c>
-      <c r="D103" t="s">
-        <v>272</v>
+        <v>239</v>
+      </c>
+      <c r="D103">
+        <v>43</v>
       </c>
       <c r="E103" t="s">
         <v>272</v>
@@ -2952,13 +2952,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D104">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E104" t="s">
         <v>272</v>
@@ -2969,13 +2969,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
-      </c>
-      <c r="D105">
-        <v>43</v>
+        <v>241</v>
+      </c>
+      <c r="D105" t="s">
+        <v>272</v>
       </c>
       <c r="E105" t="s">
         <v>272</v>
@@ -2986,13 +2986,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106">
-        <v>67</v>
+        <v>242</v>
+      </c>
+      <c r="D106" t="s">
+        <v>272</v>
       </c>
       <c r="E106" t="s">
         <v>272</v>
@@ -3003,16 +3003,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D107">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="E107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3020,16 +3020,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>241</v>
-      </c>
-      <c r="D108" t="s">
-        <v>272</v>
+        <v>244</v>
+      </c>
+      <c r="D108">
+        <v>162</v>
       </c>
       <c r="E108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3037,16 +3037,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
-      </c>
-      <c r="D109" t="s">
-        <v>272</v>
+        <v>245</v>
+      </c>
+      <c r="D109">
+        <v>172</v>
       </c>
       <c r="E109" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3054,16 +3054,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>243</v>
-      </c>
-      <c r="D110">
-        <v>162</v>
+        <v>246</v>
+      </c>
+      <c r="D110" t="s">
+        <v>272</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3071,13 +3071,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D111">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E111" t="s">
         <v>273</v>
@@ -3088,16 +3088,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D112">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3105,13 +3105,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>246</v>
-      </c>
-      <c r="D113" t="s">
-        <v>272</v>
+        <v>249</v>
+      </c>
+      <c r="D113">
+        <v>88</v>
       </c>
       <c r="E113" t="s">
         <v>272</v>
@@ -3122,16 +3122,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
-      </c>
-      <c r="D114">
-        <v>182</v>
+        <v>250</v>
+      </c>
+      <c r="D114" t="s">
+        <v>272</v>
       </c>
       <c r="E114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3139,13 +3139,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>248</v>
-      </c>
-      <c r="D115">
-        <v>46</v>
+        <v>251</v>
+      </c>
+      <c r="D115" t="s">
+        <v>272</v>
       </c>
       <c r="E115" t="s">
         <v>272</v>
@@ -3156,13 +3156,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
-      </c>
-      <c r="D116">
-        <v>88</v>
+        <v>252</v>
+      </c>
+      <c r="D116" t="s">
+        <v>272</v>
       </c>
       <c r="E116" t="s">
         <v>272</v>
@@ -3173,10 +3173,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D117" t="s">
         <v>272</v>
@@ -3190,16 +3190,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>251</v>
-      </c>
-      <c r="D118" t="s">
-        <v>272</v>
+        <v>254</v>
+      </c>
+      <c r="D118">
+        <v>157</v>
       </c>
       <c r="E118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3207,13 +3207,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
-      </c>
-      <c r="D119" t="s">
-        <v>272</v>
+        <v>255</v>
+      </c>
+      <c r="D119">
+        <v>66</v>
       </c>
       <c r="E119" t="s">
         <v>272</v>
@@ -3224,16 +3224,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
-      </c>
-      <c r="D120" t="s">
-        <v>272</v>
+        <v>256</v>
+      </c>
+      <c r="D120">
+        <v>171</v>
       </c>
       <c r="E120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3241,13 +3241,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D121">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E121" t="s">
         <v>273</v>
@@ -3258,13 +3258,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>255</v>
-      </c>
-      <c r="D122">
-        <v>66</v>
+        <v>258</v>
+      </c>
+      <c r="D122" t="s">
+        <v>272</v>
       </c>
       <c r="E122" t="s">
         <v>272</v>
@@ -3275,13 +3275,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D123">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E123" t="s">
         <v>273</v>
@@ -3292,16 +3292,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D124">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="E124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3309,10 +3309,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D125" t="s">
         <v>272</v>
@@ -3326,16 +3326,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D126">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3343,16 +3343,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D127">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="E127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3360,13 +3360,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>261</v>
-      </c>
-      <c r="D128" t="s">
-        <v>272</v>
+        <v>264</v>
+      </c>
+      <c r="D128">
+        <v>81</v>
       </c>
       <c r="E128" t="s">
         <v>272</v>
@@ -3377,13 +3377,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>262</v>
-      </c>
-      <c r="D129">
-        <v>14</v>
+        <v>265</v>
+      </c>
+      <c r="D129" t="s">
+        <v>272</v>
       </c>
       <c r="E129" t="s">
         <v>272</v>
@@ -3394,16 +3394,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>263</v>
-      </c>
-      <c r="D130">
-        <v>169</v>
+        <v>266</v>
+      </c>
+      <c r="D130" t="s">
+        <v>272</v>
       </c>
       <c r="E130" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3411,13 +3411,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>264</v>
-      </c>
-      <c r="D131">
-        <v>81</v>
+        <v>267</v>
+      </c>
+      <c r="D131" t="s">
+        <v>272</v>
       </c>
       <c r="E131" t="s">
         <v>272</v>
@@ -3428,10 +3428,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D132" t="s">
         <v>272</v>
@@ -3445,13 +3445,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
-      </c>
-      <c r="D133" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="D133">
+        <v>93</v>
       </c>
       <c r="E133" t="s">
         <v>272</v>
@@ -3462,10 +3462,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D134" t="s">
         <v>272</v>
@@ -3479,10 +3479,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D135" t="s">
         <v>272</v>
@@ -3496,83 +3496,15 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D136">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E136" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>136</v>
-      </c>
-      <c r="C137" t="s">
-        <v>270</v>
-      </c>
-      <c r="D137" t="s">
-        <v>272</v>
-      </c>
-      <c r="E137" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>271</v>
-      </c>
-      <c r="D138" t="s">
-        <v>272</v>
-      </c>
-      <c r="E138" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>106</v>
-      </c>
-      <c r="C139" t="s">
-        <v>240</v>
-      </c>
-      <c r="D139">
-        <v>67</v>
-      </c>
-      <c r="E139" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>106</v>
-      </c>
-      <c r="C140" t="s">
-        <v>240</v>
-      </c>
-      <c r="D140">
-        <v>16</v>
-      </c>
-      <c r="E140" t="s">
         <v>272</v>
       </c>
     </row>
